--- a/applications/Brazil/PA_projections.xlsx
+++ b/applications/Brazil/PA_projections.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\applications\Brazil\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6B4E31-E631-4F4E-BD78-5E2301C2BB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Projections" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,44 +84,36 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X4" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
+    <tableColumn id="18" name="Column18"/>
+    <tableColumn id="19" name="Column19"/>
+    <tableColumn id="20" name="Column20"/>
+    <tableColumn id="21" name="Column21"/>
+    <tableColumn id="22" name="Column22"/>
+    <tableColumn id="23" name="Column23"/>
+    <tableColumn id="24" name="Column24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -176,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,16 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:X4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -570,85 +518,84 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24">
       <c r="A4">
-        <v>37365</v>
+        <v>41610</v>
       </c>
       <c r="B4">
-        <v>12182</v>
+        <v>37717</v>
       </c>
       <c r="C4">
-        <v>191082</v>
+        <v>52147</v>
       </c>
       <c r="D4">
-        <v>1.660666666666667</v>
+        <v>1.849333333333334</v>
       </c>
       <c r="E4">
-        <v>0.54146587683843816</v>
+        <v>1.676333333333334</v>
       </c>
       <c r="F4">
-        <v>8.4925425497258722</v>
+        <v>2.317666666666667</v>
       </c>
       <c r="G4">
-        <v>0.27366666666666672</v>
+        <v>0.3016666666666667</v>
       </c>
       <c r="H4">
-        <v>8.7035187986737803E-2</v>
+        <v>0.2726666666666667</v>
       </c>
       <c r="I4">
-        <v>0.55166783949681453</v>
+        <v>0.3183333333333334</v>
       </c>
       <c r="J4">
-        <v>0.78509480004644305</v>
+        <v>0.7914315642133092</v>
       </c>
       <c r="K4">
-        <v>0.14070400887751891</v>
+        <v>0.7317640931035322</v>
       </c>
       <c r="L4">
-        <v>0.34807617959393239</v>
+        <v>0.7426540931035323</v>
       </c>
       <c r="M4">
-        <v>1904</v>
+        <v>435</v>
       </c>
       <c r="N4">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="O4">
-        <v>86604</v>
+        <v>1192</v>
       </c>
       <c r="P4">
-        <v>8.8560127702885683E-2</v>
+        <v>0.02023255813953489</v>
       </c>
       <c r="Q4">
-        <v>1.7093023255813959E-2</v>
+        <v>0.0136046511627907</v>
       </c>
       <c r="R4">
-        <v>4.0281273681752339</v>
+        <v>0.05546511627906978</v>
       </c>
       <c r="S4">
-        <v>1.2275554711130961E-2</v>
+        <v>0.004883720930232559</v>
       </c>
       <c r="T4">
-        <v>2.4418604651162789E-3</v>
+        <v>0.004186046511627908</v>
       </c>
       <c r="U4">
-        <v>0.40237287902245139</v>
+        <v>0.009069767441860466</v>
       </c>
       <c r="V4">
-        <v>0.14286955135439131</v>
+        <v>0.7918915642133091</v>
       </c>
       <c r="W4">
-        <v>0.78540480004644297</v>
+        <v>0.7320940931035322</v>
       </c>
       <c r="X4">
-        <v>0.43588117959393252</v>
+        <v>0.7439790931035322</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>